--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_24_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481204.1687129167</v>
+        <v>358383.1601817668</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21545320.46477555</v>
+        <v>21545320.46477554</v>
       </c>
     </row>
     <row r="9">
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>29.19655386913487</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.93628184442638</v>
+        <v>60.71907704857082</v>
       </c>
       <c r="H11" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.52252317943584</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.144420146981902</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.06880089490754</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>37.78252507395375</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,25 +1493,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.6596127771539</v>
+        <v>19.65961277715387</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>41.05946427141696</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>28.65881697382837</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>32.06026007474236</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>68.93628184442638</v>
       </c>
-      <c r="S14" t="n">
+      <c r="X14" t="n">
         <v>68.93628184442638</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Y14" t="n">
         <v>68.93628184442638</v>
-      </c>
-      <c r="U14" t="n">
-        <v>28.65881697382837</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.80403292413581</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="G15" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.06880089490754</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.78252507395374</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>19.65961277715388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>41.05946427141681</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1852,61 +1852,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>78.99555307285411</v>
       </c>
       <c r="F17" t="n">
-        <v>18.73692364581574</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>78.99555307285411</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>50.25944682525153</v>
+      </c>
+      <c r="W17" t="n">
         <v>78.99555307285411</v>
-      </c>
-      <c r="I17" t="n">
-        <v>78.99555307285411</v>
-      </c>
-      <c r="J17" t="n">
-        <v>31.52252317943581</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,58 +1934,58 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>43.7235102505627</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>69.57928314656989</v>
+      </c>
+      <c r="U18" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="H18" t="n">
+      <c r="V18" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="I18" t="n">
-        <v>67.06880089490754</v>
-      </c>
-      <c r="J18" t="n">
-        <v>37.78252507395374</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>78.99555307285411</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2083,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="U20" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>32.06026007474236</v>
-      </c>
-      <c r="R20" t="n">
-        <v>18.19918675050919</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>50.25944682525153</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,67 +2165,67 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="E21" t="n">
+      <c r="T21" t="n">
+        <v>78.99555307285411</v>
+      </c>
+      <c r="U21" t="n">
+        <v>78.99555307285411</v>
+      </c>
+      <c r="V21" t="n">
         <v>69.57928314656989</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>78.99555307285411</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>78.99555307285411</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.741458367534817</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.52252317943581</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>84.93419621275257</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>38.26398154697062</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>74.81004002419243</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>74.81004002419247</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>38.26398154697064</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="G26" t="n">
         <v>84.93419621275257</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38.26398154697062</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="V26" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>74.81004002419243</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="U27" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>74.81004002419243</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2800,61 +2800,61 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>32.06026007474236</v>
+      </c>
+      <c r="R29" t="n">
         <v>84.93419621275257</v>
       </c>
-      <c r="F29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>84.93419621275257</v>
       </c>
-      <c r="G29" t="n">
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>84.93419621275257</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>38.26398154697062</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.203721472228292</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>74.81004002419243</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>74.81004002419247</v>
+      </c>
+      <c r="U30" t="n">
         <v>84.93419621275257</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="X30" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.93419621275257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,58 +3040,58 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.741458367534845</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38.26398154697062</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>84.93419621275257</v>
       </c>
-      <c r="H32" t="n">
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>84.93419621275257</v>
-      </c>
-      <c r="I32" t="n">
-        <v>84.93419621275257</v>
-      </c>
-      <c r="J32" t="n">
-        <v>31.52252317943581</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,58 +3119,58 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.8929102680837</v>
+        <v>84.93419621275257</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>74.81004002419247</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>84.93419621275257</v>
-      </c>
-      <c r="H33" t="n">
-        <v>84.93419621275257</v>
-      </c>
-      <c r="I33" t="n">
-        <v>67.06880089490754</v>
-      </c>
-      <c r="J33" t="n">
-        <v>37.78252507395374</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3265,67 +3265,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>32.06026007474236</v>
+      </c>
+      <c r="R35" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="S35" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="F35" t="n">
+      <c r="T35" t="n">
         <v>78.99555307285411</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>18.19918675050919</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.25944682525153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.99555307285411</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>69.57928314656989</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>19.65961277715388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.91967036941598</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>78.99555307285411</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>78.99555307285411</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.99555307285411</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>32.06026007474236</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="W38" t="n">
-        <v>50.25944682525153</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>78.99555307285411</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="Y38" t="n">
-        <v>78.99555307285411</v>
+        <v>18.19918675050919</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.99555307285411</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>78.99555307285411</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>19.65961277715388</v>
       </c>
       <c r="R39" t="n">
-        <v>49.91967036941598</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>78.99555307285411</v>
+        <v>49.91967036941604</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>78.99555307285409</v>
       </c>
     </row>
     <row r="40">
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>60.71907704857072</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>68.93628184442638</v>
       </c>
-      <c r="E41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>68.93628184442638</v>
       </c>
-      <c r="F41" t="n">
+      <c r="Y41" t="n">
         <v>68.93628184442638</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29.19655386913491</v>
-      </c>
-      <c r="J41" t="n">
-        <v>31.52252317943581</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>60.7190770485707</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="V42" t="n">
         <v>68.93628184442638</v>
@@ -3884,7 +3884,7 @@
         <v>68.93628184442638</v>
       </c>
       <c r="X42" t="n">
-        <v>68.93628184442638</v>
+        <v>60.71907704857072</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>68.93628184442638</v>
       </c>
       <c r="H44" t="n">
-        <v>60.71907704857072</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>32.06026007474236</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>28.65881697382835</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>68.93628184442638</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>19.65961277715388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>68.93628184442638</v>
       </c>
       <c r="X45" t="n">
-        <v>60.71907704857072</v>
+        <v>41.05946427141684</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="C11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="D11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="E11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="F11" t="n">
-        <v>246.2536588230238</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="G11" t="n">
-        <v>176.6210508993608</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="H11" t="n">
-        <v>106.9884429756978</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="I11" t="n">
-        <v>37.35583505203476</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="J11" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="K11" t="n">
         <v>9.481770827466221</v>
       </c>
       <c r="L11" t="n">
-        <v>51.30478356112405</v>
+        <v>51.30478356112418</v>
       </c>
       <c r="M11" t="n">
-        <v>119.5517025871062</v>
+        <v>119.5517025871064</v>
       </c>
       <c r="N11" t="n">
-        <v>187.7986216130883</v>
+        <v>187.7986216130886</v>
       </c>
       <c r="O11" t="n">
-        <v>253.8623038687558</v>
+        <v>253.8623038687562</v>
       </c>
       <c r="P11" t="n">
-        <v>275.7451273777055</v>
+        <v>275.745127377706</v>
       </c>
       <c r="Q11" t="n">
-        <v>275.7451273777055</v>
+        <v>275.745127377706</v>
       </c>
       <c r="R11" t="n">
-        <v>275.7451273777055</v>
+        <v>275.745127377706</v>
       </c>
       <c r="S11" t="n">
-        <v>275.7451273777055</v>
+        <v>206.1125194540428</v>
       </c>
       <c r="T11" t="n">
-        <v>275.7451273777055</v>
+        <v>206.1125194540428</v>
       </c>
       <c r="U11" t="n">
-        <v>275.7451273777055</v>
+        <v>136.4799115303797</v>
       </c>
       <c r="V11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="W11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="X11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.7451273777055</v>
+        <v>66.84730360671657</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="C12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="D12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="E12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="F12" t="n">
-        <v>250.6905486664572</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="G12" t="n">
-        <v>181.0579407427942</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="H12" t="n">
-        <v>111.4253328191312</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="I12" t="n">
-        <v>43.67906928892153</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="J12" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="K12" t="n">
-        <v>19.73913754167337</v>
+        <v>19.7391375416734</v>
       </c>
       <c r="L12" t="n">
-        <v>25.44358296392826</v>
+        <v>85.18791802604719</v>
       </c>
       <c r="M12" t="n">
-        <v>93.69050198991037</v>
+        <v>153.4348370520294</v>
       </c>
       <c r="N12" t="n">
-        <v>161.9374210158925</v>
+        <v>221.6817560780116</v>
       </c>
       <c r="O12" t="n">
-        <v>230.1843400418746</v>
+        <v>275.745127377706</v>
       </c>
       <c r="P12" t="n">
-        <v>275.7451273777055</v>
+        <v>275.745127377706</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.8869326533076</v>
+        <v>255.8869326533081</v>
       </c>
       <c r="R12" t="n">
-        <v>255.8869326533076</v>
+        <v>186.254324729645</v>
       </c>
       <c r="S12" t="n">
-        <v>255.8869326533076</v>
+        <v>186.254324729645</v>
       </c>
       <c r="T12" t="n">
-        <v>255.8869326533076</v>
+        <v>144.7801183948804</v>
       </c>
       <c r="U12" t="n">
-        <v>255.8869326533076</v>
+        <v>144.7801183948804</v>
       </c>
       <c r="V12" t="n">
-        <v>255.8869326533076</v>
+        <v>75.14751047121725</v>
       </c>
       <c r="W12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="X12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.8869326533076</v>
+        <v>5.51490254755412</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="C13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="D13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="E13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="F13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="G13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="H13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="I13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="J13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="K13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="L13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="M13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="N13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="O13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="P13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="R13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="S13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="T13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="U13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="V13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="W13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="X13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.51490254755411</v>
+        <v>5.51490254755412</v>
       </c>
     </row>
     <row r="14">
@@ -5284,7 +5284,7 @@
         <v>9.481770827466107</v>
       </c>
       <c r="L14" t="n">
-        <v>51.30478356112407</v>
+        <v>51.30478356112405</v>
       </c>
       <c r="M14" t="n">
         <v>119.5517025871062</v>
@@ -5302,28 +5302,28 @@
         <v>243.3610262921072</v>
       </c>
       <c r="R14" t="n">
+        <v>243.3610262921072</v>
+      </c>
+      <c r="S14" t="n">
+        <v>243.3610262921072</v>
+      </c>
+      <c r="T14" t="n">
+        <v>243.3610262921072</v>
+      </c>
+      <c r="U14" t="n">
+        <v>243.3610262921072</v>
+      </c>
+      <c r="V14" t="n">
+        <v>243.3610262921072</v>
+      </c>
+      <c r="W14" t="n">
         <v>173.7284183684442</v>
       </c>
-      <c r="S14" t="n">
+      <c r="X14" t="n">
         <v>104.0958104447811</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Y14" t="n">
         <v>34.46320252111812</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5.51490254755411</v>
-      </c>
-      <c r="V14" t="n">
-        <v>5.51490254755411</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.51490254755411</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.51490254755411</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.51490254755411</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>275.7451273777055</v>
+        <v>144.7801183948802</v>
       </c>
       <c r="C15" t="n">
-        <v>275.7451273777055</v>
+        <v>144.7801183948802</v>
       </c>
       <c r="D15" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="E15" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="F15" t="n">
-        <v>250.6905486664572</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="G15" t="n">
-        <v>181.0579407427942</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="H15" t="n">
-        <v>111.4253328191312</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="I15" t="n">
-        <v>43.67906928892152</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="J15" t="n">
         <v>5.51490254755411</v>
       </c>
       <c r="K15" t="n">
-        <v>5.51490254755411</v>
+        <v>19.73913754167337</v>
       </c>
       <c r="L15" t="n">
-        <v>70.96368303192787</v>
+        <v>85.18791802604713</v>
       </c>
       <c r="M15" t="n">
-        <v>93.69050198991037</v>
+        <v>153.4348370520293</v>
       </c>
       <c r="N15" t="n">
-        <v>161.9374210158925</v>
+        <v>221.6817560780113</v>
       </c>
       <c r="O15" t="n">
-        <v>230.1843400418746</v>
+        <v>275.7451273777055</v>
       </c>
       <c r="P15" t="n">
         <v>275.7451273777055</v>
       </c>
       <c r="Q15" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="R15" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="S15" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="T15" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="U15" t="n">
-        <v>275.7451273777055</v>
+        <v>214.4127263185432</v>
       </c>
       <c r="V15" t="n">
-        <v>275.7451273777055</v>
+        <v>214.4127263185432</v>
       </c>
       <c r="W15" t="n">
-        <v>275.7451273777055</v>
+        <v>214.4127263185432</v>
       </c>
       <c r="X15" t="n">
-        <v>275.7451273777055</v>
+        <v>214.4127263185432</v>
       </c>
       <c r="Y15" t="n">
-        <v>275.7451273777055</v>
+        <v>214.4127263185432</v>
       </c>
     </row>
     <row r="16">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="C17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="D17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="E17" t="n">
-        <v>296.4672261082666</v>
+        <v>86.11313219820622</v>
       </c>
       <c r="F17" t="n">
-        <v>277.5410406074426</v>
+        <v>86.11313219820622</v>
       </c>
       <c r="G17" t="n">
-        <v>197.7475526550647</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="H17" t="n">
-        <v>117.9540647026868</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="I17" t="n">
-        <v>38.16057675030895</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="J17" t="n">
         <v>6.319644245828329</v>
@@ -5551,16 +5551,16 @@
         <v>296.4672261082666</v>
       </c>
       <c r="V17" t="n">
-        <v>296.4672261082666</v>
+        <v>245.700108102962</v>
       </c>
       <c r="W17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="X17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.4672261082666</v>
+        <v>165.9066201505841</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F18" t="n">
-        <v>271.8170504221612</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="G18" t="n">
-        <v>192.0235624697833</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2300745174054</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="I18" t="n">
-        <v>44.48381098719574</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="J18" t="n">
         <v>6.319644245828329</v>
@@ -5603,7 +5603,7 @@
         <v>85.99265972432134</v>
       </c>
       <c r="M18" t="n">
-        <v>114.0102298713344</v>
+        <v>164.1982572664469</v>
       </c>
       <c r="N18" t="n">
         <v>192.2158274134599</v>
@@ -5624,22 +5624,22 @@
         <v>315.9822122914164</v>
       </c>
       <c r="T18" t="n">
-        <v>315.9822122914164</v>
+        <v>245.700108102962</v>
       </c>
       <c r="U18" t="n">
-        <v>315.9822122914164</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="V18" t="n">
-        <v>315.9822122914164</v>
+        <v>86.11313219820622</v>
       </c>
       <c r="W18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="X18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y18" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C20" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D20" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E20" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F20" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="G20" t="n">
         <v>6.319644245828329</v>
@@ -5773,31 +5773,31 @@
         <v>296.4672261082666</v>
       </c>
       <c r="Q20" t="n">
-        <v>264.0831250226682</v>
+        <v>296.4672261082666</v>
       </c>
       <c r="R20" t="n">
-        <v>245.700108102962</v>
+        <v>296.4672261082666</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9066201505841</v>
+        <v>296.4672261082666</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9066201505841</v>
+        <v>216.6737381558887</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9066201505841</v>
+        <v>136.8802502035108</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9066201505841</v>
+        <v>136.8802502035108</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9066201505841</v>
+        <v>57.08676225113291</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>236.1887243390385</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C21" t="n">
-        <v>236.1887243390385</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D21" t="n">
-        <v>156.3952363866607</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E21" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F21" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="G21" t="n">
         <v>6.319644245828329</v>
@@ -5858,25 +5858,25 @@
         <v>315.9822122914164</v>
       </c>
       <c r="S21" t="n">
-        <v>315.9822122914164</v>
+        <v>236.1887243390385</v>
       </c>
       <c r="T21" t="n">
-        <v>315.9822122914164</v>
+        <v>156.3952363866607</v>
       </c>
       <c r="U21" t="n">
-        <v>315.9822122914164</v>
+        <v>76.60174843428277</v>
       </c>
       <c r="V21" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="W21" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="X21" t="n">
-        <v>236.1887243390385</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y21" t="n">
-        <v>236.1887243390385</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="G22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="H22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="I22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="J22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="K22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="L22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="M22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="N22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="O22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Q22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="R22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="S22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="T22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="U22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="V22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="W22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="X22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y22" t="n">
-        <v>315.9822122914164</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.2373394947204</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="C23" t="n">
-        <v>131.2373394947204</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="D23" t="n">
-        <v>131.2373394947204</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="E23" t="n">
-        <v>124.4277855881196</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="F23" t="n">
-        <v>124.4277855881196</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="G23" t="n">
-        <v>38.63566820150082</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H23" t="n">
-        <v>38.63566820150082</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I23" t="n">
-        <v>38.63566820150082</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="J23" t="n">
         <v>6.794735697020205</v>
@@ -6025,16 +6025,16 @@
         <v>217.0294568813392</v>
       </c>
       <c r="V23" t="n">
-        <v>217.0294568813392</v>
+        <v>131.2373394947204</v>
       </c>
       <c r="W23" t="n">
-        <v>217.0294568813392</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="X23" t="n">
-        <v>217.0294568813392</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Y23" t="n">
-        <v>131.2373394947204</v>
+        <v>6.794735697020205</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.794735697020205</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="C24" t="n">
-        <v>6.794735697020205</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="D24" t="n">
-        <v>6.794735697020205</v>
+        <v>168.1525500777727</v>
       </c>
       <c r="E24" t="n">
-        <v>6.794735697020205</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="F24" t="n">
         <v>6.794735697020205</v>
@@ -6071,16 +6071,16 @@
         <v>6.794735697020205</v>
       </c>
       <c r="K24" t="n">
-        <v>6.794735697020205</v>
+        <v>21.01897069113946</v>
       </c>
       <c r="L24" t="n">
-        <v>72.24351618139396</v>
+        <v>86.46775117551321</v>
       </c>
       <c r="M24" t="n">
-        <v>156.328370432019</v>
+        <v>129.2354109133682</v>
       </c>
       <c r="N24" t="n">
-        <v>240.4132246826441</v>
+        <v>213.3202651639932</v>
       </c>
       <c r="O24" t="n">
         <v>294.1759975151793</v>
@@ -6092,28 +6092,28 @@
         <v>339.7367848510103</v>
       </c>
       <c r="R24" t="n">
-        <v>264.1710878568765</v>
+        <v>339.7367848510103</v>
       </c>
       <c r="S24" t="n">
-        <v>264.1710878568765</v>
+        <v>339.7367848510103</v>
       </c>
       <c r="T24" t="n">
-        <v>264.1710878568765</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="U24" t="n">
-        <v>264.1710878568765</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="V24" t="n">
-        <v>178.3789704702577</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="W24" t="n">
-        <v>92.58685308363896</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="X24" t="n">
-        <v>6.794735697020205</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.794735697020205</v>
+        <v>253.9446674643915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="C25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="D25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="E25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="F25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="G25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="J25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="K25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="L25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="M25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="N25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="O25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="P25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Q25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="R25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="S25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="T25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="U25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="V25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="W25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="X25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Y25" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>131.2373394947204</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="C26" t="n">
-        <v>131.2373394947204</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="D26" t="n">
-        <v>131.2373394947204</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="E26" t="n">
-        <v>131.2373394947204</v>
+        <v>178.3789704702577</v>
       </c>
       <c r="F26" t="n">
-        <v>131.2373394947204</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="G26" t="n">
-        <v>45.44522210810165</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H26" t="n">
-        <v>45.44522210810165</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I26" t="n">
         <v>6.794735697020205</v>
@@ -6259,7 +6259,7 @@
         <v>302.8215742679579</v>
       </c>
       <c r="U26" t="n">
-        <v>302.8215742679579</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="V26" t="n">
         <v>217.0294568813392</v>
@@ -6271,7 +6271,7 @@
         <v>217.0294568813392</v>
       </c>
       <c r="Y26" t="n">
-        <v>131.2373394947204</v>
+        <v>217.0294568813392</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.794735697020205</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="C27" t="n">
-        <v>6.794735697020205</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="D27" t="n">
         <v>6.794735697020205</v>
@@ -6308,16 +6308,16 @@
         <v>6.794735697020205</v>
       </c>
       <c r="K27" t="n">
-        <v>6.794735697020205</v>
+        <v>21.01897069113946</v>
       </c>
       <c r="L27" t="n">
-        <v>45.15055666274314</v>
+        <v>86.46775117551321</v>
       </c>
       <c r="M27" t="n">
-        <v>129.2354109133682</v>
+        <v>170.5526054261383</v>
       </c>
       <c r="N27" t="n">
-        <v>213.3202651639932</v>
+        <v>254.6374596767633</v>
       </c>
       <c r="O27" t="n">
         <v>294.1759975151793</v>
@@ -6329,28 +6329,28 @@
         <v>339.7367848510103</v>
       </c>
       <c r="R27" t="n">
-        <v>339.7367848510103</v>
+        <v>253.9446674643915</v>
       </c>
       <c r="S27" t="n">
-        <v>339.7367848510103</v>
+        <v>168.1525500777727</v>
       </c>
       <c r="T27" t="n">
-        <v>339.7367848510103</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="U27" t="n">
-        <v>253.9446674643915</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="V27" t="n">
-        <v>168.1525500777727</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="W27" t="n">
         <v>82.36043269115397</v>
       </c>
       <c r="X27" t="n">
-        <v>6.794735697020205</v>
+        <v>82.36043269115397</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.794735697020205</v>
+        <v>82.36043269115397</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="C28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="D28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="F28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="G28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="J28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="K28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="L28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="M28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="N28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="O28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="P28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Q28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="R28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="S28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="T28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="U28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="V28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="W28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="X28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Y28" t="n">
-        <v>339.7367848510103</v>
+        <v>6.794735697020205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="C29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="D29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="E29" t="n">
-        <v>217.0294568813392</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="F29" t="n">
-        <v>131.2373394947204</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="G29" t="n">
-        <v>45.44522210810165</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H29" t="n">
-        <v>45.44522210810165</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I29" t="n">
         <v>6.794735697020205</v>
@@ -6484,31 +6484,31 @@
         <v>302.8215742679579</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.8215742679579</v>
+        <v>270.4374731823596</v>
       </c>
       <c r="R29" t="n">
-        <v>302.8215742679579</v>
+        <v>184.6453557957408</v>
       </c>
       <c r="S29" t="n">
-        <v>302.8215742679579</v>
+        <v>184.6453557957408</v>
       </c>
       <c r="T29" t="n">
-        <v>302.8215742679579</v>
+        <v>98.85323840912208</v>
       </c>
       <c r="U29" t="n">
-        <v>302.8215742679579</v>
+        <v>98.85323840912208</v>
       </c>
       <c r="V29" t="n">
-        <v>302.8215742679579</v>
+        <v>13.06112102250333</v>
       </c>
       <c r="W29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="X29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.8215742679579</v>
+        <v>6.794735697020205</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.36043269115397</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="C30" t="n">
         <v>6.794735697020205</v>
@@ -6554,7 +6554,7 @@
         <v>170.5526054261383</v>
       </c>
       <c r="N30" t="n">
-        <v>254.6374596767633</v>
+        <v>213.3202651639932</v>
       </c>
       <c r="O30" t="n">
         <v>294.1759975151793</v>
@@ -6572,22 +6572,22 @@
         <v>339.7367848510103</v>
       </c>
       <c r="T30" t="n">
-        <v>253.9446674643915</v>
+        <v>264.1710878568765</v>
       </c>
       <c r="U30" t="n">
-        <v>253.9446674643915</v>
+        <v>178.3789704702577</v>
       </c>
       <c r="V30" t="n">
-        <v>253.9446674643915</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="W30" t="n">
-        <v>253.9446674643915</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="X30" t="n">
-        <v>168.1525500777727</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.36043269115397</v>
+        <v>6.794735697020205</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.8215742679579</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="C32" t="n">
-        <v>302.8215742679579</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="D32" t="n">
-        <v>302.8215742679579</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="E32" t="n">
-        <v>302.8215742679579</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="F32" t="n">
-        <v>296.0120203613571</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="G32" t="n">
-        <v>210.2199029747383</v>
+        <v>45.44522210810165</v>
       </c>
       <c r="H32" t="n">
-        <v>124.4277855881196</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I32" t="n">
-        <v>38.63566820150082</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="J32" t="n">
         <v>6.794735697020205</v>
@@ -6730,22 +6730,22 @@
         <v>302.8215742679579</v>
       </c>
       <c r="T32" t="n">
-        <v>302.8215742679579</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="U32" t="n">
-        <v>302.8215742679579</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="V32" t="n">
-        <v>302.8215742679579</v>
+        <v>217.0294568813392</v>
       </c>
       <c r="W32" t="n">
-        <v>302.8215742679579</v>
+        <v>131.2373394947204</v>
       </c>
       <c r="X32" t="n">
-        <v>302.8215742679579</v>
+        <v>131.2373394947204</v>
       </c>
       <c r="Y32" t="n">
-        <v>302.8215742679579</v>
+        <v>131.2373394947204</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.7367848510103</v>
+        <v>178.3789704702577</v>
       </c>
       <c r="C33" t="n">
-        <v>339.7367848510103</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="D33" t="n">
-        <v>339.7367848510103</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="E33" t="n">
-        <v>339.7367848510103</v>
+        <v>92.58685308363896</v>
       </c>
       <c r="F33" t="n">
-        <v>284.2894007418348</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="G33" t="n">
-        <v>198.497283355216</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="H33" t="n">
-        <v>112.7051659685973</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="I33" t="n">
-        <v>44.95890243838762</v>
+        <v>6.794735697020205</v>
       </c>
       <c r="J33" t="n">
         <v>6.794735697020205</v>
       </c>
       <c r="K33" t="n">
-        <v>6.794735697020205</v>
+        <v>21.01897069113946</v>
       </c>
       <c r="L33" t="n">
-        <v>72.24351618139396</v>
+        <v>86.46775117551321</v>
       </c>
       <c r="M33" t="n">
         <v>129.2354109133682</v>
@@ -6812,19 +6812,19 @@
         <v>339.7367848510103</v>
       </c>
       <c r="U33" t="n">
-        <v>339.7367848510103</v>
+        <v>264.1710878568765</v>
       </c>
       <c r="V33" t="n">
-        <v>339.7367848510103</v>
+        <v>264.1710878568765</v>
       </c>
       <c r="W33" t="n">
-        <v>339.7367848510103</v>
+        <v>178.3789704702577</v>
       </c>
       <c r="X33" t="n">
-        <v>339.7367848510103</v>
+        <v>178.3789704702577</v>
       </c>
       <c r="Y33" t="n">
-        <v>339.7367848510103</v>
+        <v>178.3789704702577</v>
       </c>
     </row>
     <row r="34">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C35" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D35" t="n">
-        <v>165.9066201505841</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E35" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F35" t="n">
         <v>6.319644245828329</v>
@@ -6958,31 +6958,31 @@
         <v>296.4672261082666</v>
       </c>
       <c r="Q35" t="n">
-        <v>296.4672261082666</v>
+        <v>264.0831250226682</v>
       </c>
       <c r="R35" t="n">
-        <v>296.4672261082666</v>
+        <v>184.2896370702904</v>
       </c>
       <c r="S35" t="n">
-        <v>296.4672261082666</v>
+        <v>104.4961491179125</v>
       </c>
       <c r="T35" t="n">
-        <v>296.4672261082666</v>
+        <v>24.70266116553458</v>
       </c>
       <c r="U35" t="n">
-        <v>296.4672261082666</v>
+        <v>24.70266116553458</v>
       </c>
       <c r="V35" t="n">
-        <v>296.4672261082666</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="W35" t="n">
-        <v>296.4672261082666</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="X35" t="n">
-        <v>296.4672261082666</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y35" t="n">
-        <v>245.700108102962</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.60174843428277</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="C36" t="n">
-        <v>76.60174843428277</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="D36" t="n">
-        <v>76.60174843428277</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="E36" t="n">
-        <v>76.60174843428277</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="F36" t="n">
         <v>6.319644245828329</v>
@@ -7025,43 +7025,43 @@
         <v>85.99265972432134</v>
       </c>
       <c r="M36" t="n">
-        <v>114.0102298713344</v>
+        <v>164.1982572664469</v>
       </c>
       <c r="N36" t="n">
-        <v>192.2158274134599</v>
+        <v>242.4038548085724</v>
       </c>
       <c r="O36" t="n">
-        <v>270.4214249555855</v>
+        <v>315.9822122914164</v>
       </c>
       <c r="P36" t="n">
         <v>315.9822122914164</v>
       </c>
       <c r="Q36" t="n">
-        <v>315.9822122914164</v>
+        <v>296.1240175670185</v>
       </c>
       <c r="R36" t="n">
-        <v>315.9822122914164</v>
+        <v>245.700108102962</v>
       </c>
       <c r="S36" t="n">
-        <v>315.9822122914164</v>
+        <v>245.700108102962</v>
       </c>
       <c r="T36" t="n">
-        <v>236.1887243390385</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="U36" t="n">
-        <v>236.1887243390385</v>
+        <v>165.9066201505841</v>
       </c>
       <c r="V36" t="n">
-        <v>156.3952363866607</v>
+        <v>86.11313219820622</v>
       </c>
       <c r="W36" t="n">
-        <v>156.3952363866607</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="X36" t="n">
-        <v>156.3952363866607</v>
+        <v>6.319644245828329</v>
       </c>
       <c r="Y36" t="n">
-        <v>156.3952363866607</v>
+        <v>6.319644245828329</v>
       </c>
     </row>
     <row r="37">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="C38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="D38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="E38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="F38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="G38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="H38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="I38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="J38" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="K38" t="n">
         <v>10.2865125257403</v>
@@ -7186,40 +7186,40 @@
         <v>130.3151228015238</v>
       </c>
       <c r="N38" t="n">
-        <v>208.5207203436494</v>
+        <v>208.5207203436493</v>
       </c>
       <c r="O38" t="n">
-        <v>274.5844025993169</v>
+        <v>274.5844025993168</v>
       </c>
       <c r="P38" t="n">
-        <v>296.4672261082666</v>
+        <v>296.4672261082665</v>
       </c>
       <c r="Q38" t="n">
-        <v>296.4672261082666</v>
+        <v>264.0831250226682</v>
       </c>
       <c r="R38" t="n">
-        <v>296.4672261082666</v>
+        <v>264.0831250226682</v>
       </c>
       <c r="S38" t="n">
-        <v>296.4672261082666</v>
+        <v>264.0831250226682</v>
       </c>
       <c r="T38" t="n">
-        <v>296.4672261082666</v>
+        <v>264.0831250226682</v>
       </c>
       <c r="U38" t="n">
-        <v>296.4672261082666</v>
+        <v>184.2896370702903</v>
       </c>
       <c r="V38" t="n">
-        <v>296.4672261082666</v>
+        <v>104.4961491179125</v>
       </c>
       <c r="W38" t="n">
-        <v>245.700108102962</v>
+        <v>104.4961491179125</v>
       </c>
       <c r="X38" t="n">
-        <v>165.9066201505841</v>
+        <v>24.70266116553458</v>
       </c>
       <c r="Y38" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828328</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86.11313219820622</v>
+        <v>86.1131321982062</v>
       </c>
       <c r="C39" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="D39" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="E39" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="F39" t="n">
-        <v>86.11313219820622</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="G39" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="H39" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="I39" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="J39" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="K39" t="n">
-        <v>20.54387923994759</v>
+        <v>20.54387923994758</v>
       </c>
       <c r="L39" t="n">
         <v>85.99265972432134</v>
       </c>
       <c r="M39" t="n">
-        <v>114.0102298713344</v>
+        <v>164.1982572664469</v>
       </c>
       <c r="N39" t="n">
-        <v>192.2158274134599</v>
+        <v>242.4038548085724</v>
       </c>
       <c r="O39" t="n">
-        <v>270.4214249555855</v>
+        <v>315.9822122914164</v>
       </c>
       <c r="P39" t="n">
         <v>315.9822122914164</v>
@@ -7277,10 +7277,10 @@
         <v>296.1240175670185</v>
       </c>
       <c r="R39" t="n">
-        <v>245.700108102962</v>
+        <v>216.3305296146407</v>
       </c>
       <c r="S39" t="n">
-        <v>245.700108102962</v>
+        <v>216.3305296146407</v>
       </c>
       <c r="T39" t="n">
         <v>165.9066201505841</v>
@@ -7298,7 +7298,7 @@
         <v>165.9066201505841</v>
       </c>
       <c r="Y39" t="n">
-        <v>165.9066201505841</v>
+        <v>86.1131321982062</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="C40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="D40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="E40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="F40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="G40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="H40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="I40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="J40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="K40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="L40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="M40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="N40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="O40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="P40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="R40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="S40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="T40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="U40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="V40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="W40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="X40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.319644245828329</v>
+        <v>6.319644245828328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="C41" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="D41" t="n">
-        <v>206.1125194540425</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="E41" t="n">
-        <v>136.4799115303795</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="F41" t="n">
-        <v>66.84730360671645</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="G41" t="n">
-        <v>66.84730360671645</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="H41" t="n">
-        <v>66.84730360671645</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="I41" t="n">
-        <v>37.35583505203473</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="J41" t="n">
         <v>5.51490254755411</v>
@@ -7438,25 +7438,25 @@
         <v>275.7451273777054</v>
       </c>
       <c r="S41" t="n">
-        <v>275.7451273777054</v>
+        <v>275.7451273777055</v>
       </c>
       <c r="T41" t="n">
-        <v>275.7451273777054</v>
+        <v>206.1125194540425</v>
       </c>
       <c r="U41" t="n">
-        <v>275.7451273777054</v>
+        <v>206.1125194540425</v>
       </c>
       <c r="V41" t="n">
-        <v>275.7451273777054</v>
+        <v>206.1125194540425</v>
       </c>
       <c r="W41" t="n">
-        <v>275.7451273777054</v>
+        <v>206.1125194540425</v>
       </c>
       <c r="X41" t="n">
-        <v>275.7451273777054</v>
+        <v>136.4799115303795</v>
       </c>
       <c r="Y41" t="n">
-        <v>275.7451273777054</v>
+        <v>66.84730360671645</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>5.51490254755411</v>
       </c>
       <c r="K42" t="n">
-        <v>19.73913754167337</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="L42" t="n">
-        <v>85.18791802604713</v>
+        <v>70.96368303192787</v>
       </c>
       <c r="M42" t="n">
-        <v>153.4348370520293</v>
+        <v>139.21060205791</v>
       </c>
       <c r="N42" t="n">
-        <v>221.6817560780113</v>
+        <v>207.4575210838921</v>
       </c>
       <c r="O42" t="n">
         <v>230.1843400418746</v>
@@ -7523,13 +7523,13 @@
         <v>275.7451273777055</v>
       </c>
       <c r="U42" t="n">
-        <v>214.4127263185432</v>
+        <v>206.1125194540425</v>
       </c>
       <c r="V42" t="n">
-        <v>144.7801183948802</v>
+        <v>136.4799115303795</v>
       </c>
       <c r="W42" t="n">
-        <v>75.14751047121713</v>
+        <v>66.84730360671645</v>
       </c>
       <c r="X42" t="n">
         <v>5.51490254755411</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="C43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="D43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="E43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="F43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="G43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="H43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="I43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="J43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="K43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="L43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="M43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="N43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="O43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="P43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="Q43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="R43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="S43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="T43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="U43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="V43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="W43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="X43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="Y43" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>206.1125194540425</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="C44" t="n">
-        <v>206.1125194540425</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="D44" t="n">
-        <v>206.1125194540425</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="E44" t="n">
-        <v>136.4799115303795</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="F44" t="n">
-        <v>136.4799115303795</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="G44" t="n">
-        <v>66.84730360671645</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="H44" t="n">
         <v>5.51490254755411</v>
@@ -7651,16 +7651,16 @@
         <v>5.51490254755411</v>
       </c>
       <c r="K44" t="n">
-        <v>9.481770827466107</v>
+        <v>9.481770827466143</v>
       </c>
       <c r="L44" t="n">
-        <v>51.30478356112405</v>
+        <v>51.30478356112409</v>
       </c>
       <c r="M44" t="n">
         <v>119.5517025871062</v>
       </c>
       <c r="N44" t="n">
-        <v>187.7986216130884</v>
+        <v>187.7986216130883</v>
       </c>
       <c r="O44" t="n">
         <v>253.8623038687558</v>
@@ -7669,31 +7669,31 @@
         <v>275.7451273777055</v>
       </c>
       <c r="Q44" t="n">
-        <v>275.7451273777055</v>
+        <v>243.3610262921072</v>
       </c>
       <c r="R44" t="n">
-        <v>275.7451273777055</v>
+        <v>173.7284183684442</v>
       </c>
       <c r="S44" t="n">
-        <v>275.7451273777055</v>
+        <v>144.7801183948802</v>
       </c>
       <c r="T44" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="U44" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="V44" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="W44" t="n">
-        <v>275.7451273777055</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="X44" t="n">
-        <v>206.1125194540425</v>
+        <v>75.14751047121713</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.1125194540425</v>
+        <v>75.14751047121713</v>
       </c>
     </row>
     <row r="45">
@@ -7748,25 +7748,25 @@
         <v>275.7451273777055</v>
       </c>
       <c r="Q45" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="R45" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="S45" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="T45" t="n">
-        <v>275.7451273777055</v>
+        <v>255.8869326533076</v>
       </c>
       <c r="U45" t="n">
-        <v>206.1125194540425</v>
+        <v>186.2543247296446</v>
       </c>
       <c r="V45" t="n">
-        <v>136.4799115303795</v>
+        <v>116.6217168059816</v>
       </c>
       <c r="W45" t="n">
-        <v>66.84730360671645</v>
+        <v>46.98910888231859</v>
       </c>
       <c r="X45" t="n">
         <v>5.51490254755411</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="C46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="D46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="E46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="F46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="G46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="H46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="I46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="J46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="K46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="L46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="M46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="N46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="O46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="P46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="Q46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="R46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="S46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="T46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="U46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="V46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="W46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="X46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
       <c r="Y46" t="n">
-        <v>275.7451273777055</v>
+        <v>5.51490254755411</v>
       </c>
     </row>
   </sheetData>
@@ -22579,7 +22579,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N2" t="n">
         <v>16.60507348116786</v>
@@ -22591,13 +22591,13 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R2" t="n">
         <v>140.6675721459498</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T2" t="n">
         <v>217.8750126833486</v>
@@ -22649,10 +22649,10 @@
         <v>77.55183396885138</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q3" t="n">
         <v>58.52562482607891</v>
@@ -22731,7 +22731,7 @@
         <v>89.17212966257721</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L4" t="n">
         <v>55.34730792350439</v>
@@ -22746,7 +22746,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q4" t="n">
         <v>106.7074780912847</v>
@@ -23044,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23053,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23120,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
         <v>62.00809140979796</v>
@@ -23217,10 +23217,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>377.6794918725766</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>344.6047404012967</v>
+        <v>352.8219451971523</v>
       </c>
       <c r="H11" t="n">
-        <v>252.4963537684759</v>
+        <v>321.4326356129023</v>
       </c>
       <c r="I11" t="n">
-        <v>73.62107980197625</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>31.52252317943578</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.06026007474239</v>
+        <v>32.06026007474233</v>
       </c>
       <c r="R11" t="n">
         <v>104.9211910219352</v>
       </c>
       <c r="S11" t="n">
-        <v>168.8749828845211</v>
+        <v>99.93870104009456</v>
       </c>
       <c r="T11" t="n">
         <v>215.3839409722806</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2047156862835</v>
+        <v>182.2684338418571</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>258.8159766257084</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>139.924792246402</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>67.46463454987203</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H12" t="n">
-        <v>34.19562338704925</v>
+        <v>103.1319052314756</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.06880089490753</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>37.78252507395372</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87.15557201343033</v>
+        <v>18.21929016900383</v>
       </c>
       <c r="S12" t="n">
         <v>154.1747752426829</v>
       </c>
       <c r="T12" t="n">
-        <v>196.3653861218815</v>
+        <v>155.3059218504645</v>
       </c>
       <c r="U12" t="n">
         <v>225.8793688724938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>163.8643053049988</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>182.7587013164931</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,25 +23442,25 @@
         <v>71.12511261986552</v>
       </c>
       <c r="K13" t="n">
-        <v>37.20117809935103</v>
+        <v>37.201178099351</v>
       </c>
       <c r="L13" t="n">
-        <v>17.39682358294803</v>
+        <v>17.39682358294799</v>
       </c>
       <c r="M13" t="n">
-        <v>15.05131628974652</v>
+        <v>15.0513162897465</v>
       </c>
       <c r="N13" t="n">
-        <v>6.756534775229468</v>
+        <v>6.756534775229426</v>
       </c>
       <c r="O13" t="n">
-        <v>26.75902507572579</v>
+        <v>26.75902507572576</v>
       </c>
       <c r="P13" t="n">
-        <v>42.15148501416823</v>
+        <v>42.15148501416822</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.33277396624715</v>
+        <v>85.33277396624713</v>
       </c>
       <c r="R13" t="n">
         <v>141.7611106234858</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>354.0750246896522</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>35.98490917750884</v>
+        <v>104.9211910219352</v>
       </c>
       <c r="S14" t="n">
-        <v>99.9387010400947</v>
+        <v>168.8749828845211</v>
       </c>
       <c r="T14" t="n">
-        <v>146.4476591278543</v>
+        <v>215.3839409722806</v>
       </c>
       <c r="U14" t="n">
-        <v>222.5458987124552</v>
+        <v>251.2047156862835</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>280.3046868729866</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>300.7948188340426</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>317.3016568116272</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>97.59690180544096</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>78.50878372021238</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>120.2651794692481</v>
+        <v>76.1329305489575</v>
       </c>
       <c r="G15" t="n">
-        <v>67.46463454987203</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H15" t="n">
-        <v>34.19562338704925</v>
+        <v>103.1319052314756</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.06880089490754</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>37.78252507395374</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.65961277715388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>87.15557201343032</v>
@@ -23630,7 +23630,7 @@
         <v>196.3653861218815</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8793688724938</v>
+        <v>184.8199046010769</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>302.9348169994076</v>
       </c>
       <c r="F17" t="n">
-        <v>388.1391220958957</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>334.545469172869</v>
       </c>
       <c r="H17" t="n">
-        <v>242.4370825400482</v>
+        <v>321.4326356129023</v>
       </c>
       <c r="I17" t="n">
-        <v>63.56180857354852</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.52252317943581</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>251.2047156862835</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4928116448834</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>270.2454156445589</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>101.3457021428212</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>57.4053633214443</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H18" t="n">
-        <v>24.13635215862152</v>
+        <v>103.1319052314756</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.06880089490754</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>37.78252507395374</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>154.1747752426829</v>
       </c>
       <c r="T18" t="n">
-        <v>196.3653861218815</v>
+        <v>126.7861029753116</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8793688724938</v>
+        <v>146.8838157996396</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>153.8050340765712</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>172.6994300880655</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>286.2773386981535</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>334.545469172869</v>
+        <v>413.5410222457231</v>
       </c>
       <c r="H20" t="n">
         <v>321.4326356129023</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>32.06026007474236</v>
       </c>
       <c r="R20" t="n">
-        <v>86.72200427142603</v>
+        <v>104.9211910219352</v>
       </c>
       <c r="S20" t="n">
-        <v>89.87942981166697</v>
+        <v>168.8749828845211</v>
       </c>
       <c r="T20" t="n">
-        <v>215.3839409722806</v>
+        <v>136.3883878994265</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2047156862835</v>
+        <v>172.2091626134294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>270.2454156445589</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>319.4716538532175</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>68.44951249178465</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>88.06579730883105</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>57.4053633214443</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H21" t="n">
         <v>103.1319052314756</v>
@@ -24098,22 +24098,22 @@
         <v>87.15557201343032</v>
       </c>
       <c r="S21" t="n">
-        <v>154.1747752426829</v>
+        <v>75.17922216982876</v>
       </c>
       <c r="T21" t="n">
-        <v>196.3653861218815</v>
+        <v>117.3698330490274</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8793688724938</v>
+        <v>146.8838157996396</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>163.2213040028554</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>126.7774321306234</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>375.188911704727</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>328.6068260329706</v>
+        <v>413.5410222457231</v>
       </c>
       <c r="H23" t="n">
         <v>321.4326356129023</v>
@@ -24229,7 +24229,7 @@
         <v>142.5573616464026</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.52252317943581</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>166.270519473531</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>242.8180622573823</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>264.3067725046604</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>331.4671191314984</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.303742443301</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>62.51086935188619</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>82.83504043120851</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>60.13501618063131</v>
       </c>
       <c r="G24" t="n">
         <v>136.4009163942984</v>
@@ -24332,25 +24332,25 @@
         <v>19.65961277715388</v>
       </c>
       <c r="R24" t="n">
-        <v>12.34553198923784</v>
+        <v>87.15557201343032</v>
       </c>
       <c r="S24" t="n">
         <v>154.1747752426829</v>
       </c>
       <c r="T24" t="n">
-        <v>196.3653861218815</v>
+        <v>111.4311899091289</v>
       </c>
       <c r="U24" t="n">
         <v>225.8793688724938</v>
       </c>
       <c r="V24" t="n">
-        <v>147.8663909366727</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>166.760786948167</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>120.8387889907249</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>343.6663885252912</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>321.9418495289589</v>
       </c>
       <c r="G26" t="n">
         <v>328.6068260329706</v>
@@ -24463,7 +24463,7 @@
         <v>321.4326356129023</v>
       </c>
       <c r="I26" t="n">
-        <v>104.293380099432</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J26" t="n">
         <v>31.52252317943581</v>
@@ -24499,10 +24499,10 @@
         <v>215.3839409722806</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2047156862835</v>
+        <v>166.270519473531</v>
       </c>
       <c r="V26" t="n">
-        <v>242.8180622573823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.303742443301</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>72.63502554044632</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24569,25 +24569,25 @@
         <v>19.65961277715388</v>
       </c>
       <c r="R27" t="n">
-        <v>87.15557201343032</v>
+        <v>2.221375800677748</v>
       </c>
       <c r="S27" t="n">
-        <v>154.1747752426829</v>
+        <v>69.2405790299303</v>
       </c>
       <c r="T27" t="n">
-        <v>196.3653861218815</v>
+        <v>111.4311899091289</v>
       </c>
       <c r="U27" t="n">
-        <v>140.9451726597412</v>
+        <v>225.8793688724938</v>
       </c>
       <c r="V27" t="n">
-        <v>147.8663909366727</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>166.760786948167</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>130.962945179285</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>296.9961738595092</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>321.9418495289589</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>328.6068260329706</v>
+        <v>413.5410222457231</v>
       </c>
       <c r="H29" t="n">
         <v>321.4326356129023</v>
       </c>
       <c r="I29" t="n">
-        <v>104.293380099432</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J29" t="n">
         <v>31.52252317943581</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.06026007474236</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.9211910219352</v>
+        <v>19.98699480918265</v>
       </c>
       <c r="S29" t="n">
         <v>168.8749828845211</v>
       </c>
       <c r="T29" t="n">
-        <v>215.3839409722806</v>
+        <v>130.4497447595281</v>
       </c>
       <c r="U29" t="n">
         <v>251.2047156862835</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>242.8180622573823</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>343.0372472451847</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>97.89845896412331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24812,22 +24812,22 @@
         <v>154.1747752426829</v>
       </c>
       <c r="T30" t="n">
-        <v>111.4311899091289</v>
+        <v>121.555346097689</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8793688724938</v>
+        <v>140.9451726597412</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>147.8663909366727</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>166.760786948167</v>
       </c>
       <c r="X30" t="n">
-        <v>120.8387889907249</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>120.7484995645518</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>297.799645450728</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>400.1345873741766</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>328.6068260329706</v>
+        <v>413.5410222457231</v>
       </c>
       <c r="H32" t="n">
-        <v>236.4984394001497</v>
+        <v>283.1686540659317</v>
       </c>
       <c r="I32" t="n">
-        <v>57.62316543365006</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>31.52252317943581</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>168.8749828845211</v>
       </c>
       <c r="T32" t="n">
-        <v>215.3839409722806</v>
+        <v>130.4497447595281</v>
       </c>
       <c r="U32" t="n">
         <v>251.2047156862835</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>264.3067725046604</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>87.77430277556317</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>90.17630212530017</v>
+        <v>60.13501618063131</v>
       </c>
       <c r="G33" t="n">
-        <v>51.46672018154584</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H33" t="n">
-        <v>18.19770901872306</v>
+        <v>103.1319052314756</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.06880089490754</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>37.78252507395374</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>196.3653861218815</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8793688724938</v>
+        <v>151.0693288483013</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>166.760786948167</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>303.7382885906264</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>302.9348169994076</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>327.8804926688573</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.5410222457231</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.06026007474236</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.9211910219352</v>
+        <v>25.92563794908111</v>
       </c>
       <c r="S35" t="n">
-        <v>168.8749828845211</v>
+        <v>89.87942981166697</v>
       </c>
       <c r="T35" t="n">
-        <v>215.3839409722806</v>
+        <v>136.3883878994265</v>
       </c>
       <c r="U35" t="n">
         <v>251.2047156862835</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>309.5530717196257</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.9784918308021</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>87.53763057701323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>75.48992924681399</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.4009163942984</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.65961277715388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>87.15557201343032</v>
+        <v>37.23590164401433</v>
       </c>
       <c r="S36" t="n">
         <v>154.1747752426829</v>
@@ -25295,7 +25295,7 @@
         <v>153.8050340765712</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>172.6994300880655</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.7382885906264</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>32.06026007474236</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>104.9211910219352</v>
@@ -25447,19 +25447,19 @@
         <v>215.3839409722806</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2047156862835</v>
+        <v>172.2091626134294</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>248.7567053972808</v>
       </c>
       <c r="W38" t="n">
-        <v>298.9815218921615</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>290.7355476056149</v>
+        <v>290.735547605615</v>
       </c>
       <c r="Y38" t="n">
-        <v>307.2423855831995</v>
+        <v>368.0387519055444</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.53763057701323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>93.71294591546165</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>57.4053633214443</v>
+        <v>136.4009163942984</v>
       </c>
       <c r="H39" t="n">
         <v>103.1319052314756</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.23590164401433</v>
+        <v>8.160018940576222</v>
       </c>
       <c r="S39" t="n">
         <v>154.1747752426829</v>
       </c>
       <c r="T39" t="n">
-        <v>117.3698330490274</v>
+        <v>146.4457157524654</v>
       </c>
       <c r="U39" t="n">
         <v>225.8793688724938</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>126.6871427044503</v>
       </c>
     </row>
     <row r="40">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>322.0147646149098</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>285.7467597762566</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>312.9940882278354</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>337.939763897285</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.5410222457231</v>
@@ -25648,10 +25648,10 @@
         <v>321.4326356129023</v>
       </c>
       <c r="I41" t="n">
-        <v>113.3608077772677</v>
+        <v>142.5573616464026</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>31.52252317943581</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>168.8749828845211</v>
       </c>
       <c r="T41" t="n">
-        <v>215.3839409722806</v>
+        <v>146.4476591278543</v>
       </c>
       <c r="U41" t="n">
         <v>251.2047156862835</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>300.7948188340426</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>317.3016568116272</v>
       </c>
     </row>
     <row r="42">
@@ -25763,7 +25763,7 @@
         <v>196.3653861218815</v>
       </c>
       <c r="U42" t="n">
-        <v>165.160291823923</v>
+        <v>156.9430870280674</v>
       </c>
       <c r="V42" t="n">
         <v>163.8643053049989</v>
@@ -25772,7 +25772,7 @@
         <v>182.7587013164932</v>
       </c>
       <c r="X42" t="n">
-        <v>136.8367033590511</v>
+        <v>145.0539081549068</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>312.9940882278354</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>344.6047404012967</v>
       </c>
       <c r="H44" t="n">
-        <v>260.7135585643315</v>
+        <v>321.4326356129023</v>
       </c>
       <c r="I44" t="n">
         <v>142.5573616464026</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.06026007474236</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.9211910219352</v>
+        <v>35.98490917750884</v>
       </c>
       <c r="S44" t="n">
-        <v>168.8749828845211</v>
+        <v>140.2161659106927</v>
       </c>
       <c r="T44" t="n">
-        <v>215.3839409722806</v>
+        <v>146.4476591278543</v>
       </c>
       <c r="U44" t="n">
         <v>251.2047156862835</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>300.7948188340426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.65961277715388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>87.15557201343032</v>
@@ -26009,7 +26009,7 @@
         <v>182.7587013164932</v>
       </c>
       <c r="X45" t="n">
-        <v>145.0539081549068</v>
+        <v>164.7135209320606</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>321022.9944399821</v>
+        <v>321022.9944399819</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>322787.5927846939</v>
+        <v>322787.592784694</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>321022.9944399821</v>
+        <v>321022.9944399819</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321022.9944399821</v>
+        <v>321022.9944399822</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>317072.6396230621</v>
+        <v>317072.6396230622</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>317072.6396230621</v>
+        <v>317072.6396230622</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93751.45619041481</v>
+        <v>93751.4561904148</v>
       </c>
       <c r="C2" t="n">
         <v>100103.397503056</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115710.1547376603</v>
+        <v>115710.1547376605</v>
       </c>
       <c r="F3" t="n">
         <v>8.522183634340765e-11</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1579.209922404938</v>
+        <v>1579.209922404943</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15699.26355572316</v>
+        <v>15699.26355572321</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>49.95164762011886</v>
+        <v>49.95164762011896</v>
       </c>
       <c r="F4" t="n">
         <v>49.95164762011888</v>
       </c>
       <c r="G4" t="n">
-        <v>54.88703091118639</v>
+        <v>54.8870309111864</v>
       </c>
       <c r="H4" t="n">
         <v>54.88703091118639</v>
@@ -26441,13 +26441,13 @@
         <v>57.09163520359972</v>
       </c>
       <c r="J4" t="n">
-        <v>57.09163520359972</v>
+        <v>57.09163520359973</v>
       </c>
       <c r="K4" t="n">
         <v>57.09163520359973</v>
       </c>
       <c r="L4" t="n">
-        <v>57.09163520359973</v>
+        <v>57.09163520359972</v>
       </c>
       <c r="M4" t="n">
         <v>54.88703091118639</v>
@@ -26478,7 +26478,7 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>13744.66741334464</v>
+        <v>13744.66741334465</v>
       </c>
       <c r="F5" t="n">
         <v>13744.66741334465</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-232220.9256791876</v>
+        <v>-248282.6148691083</v>
       </c>
       <c r="C6" t="n">
-        <v>38424.28107673003</v>
+        <v>22665.06528264944</v>
       </c>
       <c r="D6" t="n">
-        <v>59503.69493979862</v>
+        <v>43744.47914571803</v>
       </c>
       <c r="E6" t="n">
-        <v>6383.500325544266</v>
+        <v>-7671.673724673927</v>
       </c>
       <c r="F6" t="n">
-        <v>122093.6550632045</v>
+        <v>108038.4810129865</v>
       </c>
       <c r="G6" t="n">
-        <v>120413.0298418328</v>
+        <v>106438.4752776744</v>
       </c>
       <c r="H6" t="n">
-        <v>123170.1251964765</v>
+        <v>109195.570632318</v>
       </c>
       <c r="I6" t="n">
-        <v>121983.8976003213</v>
+        <v>108045.3552472794</v>
       </c>
       <c r="J6" t="n">
-        <v>123563.1075227262</v>
+        <v>109624.5651696843</v>
       </c>
       <c r="K6" t="n">
-        <v>123563.1075227262</v>
+        <v>109624.5651696843</v>
       </c>
       <c r="L6" t="n">
-        <v>123563.1075227262</v>
+        <v>109624.5651696843</v>
       </c>
       <c r="M6" t="n">
-        <v>107470.8616407534</v>
+        <v>93496.30707659479</v>
       </c>
       <c r="N6" t="n">
-        <v>123170.1251964765</v>
+        <v>109195.570632318</v>
       </c>
       <c r="O6" t="n">
-        <v>122093.6550632045</v>
+        <v>108038.4810129865</v>
       </c>
       <c r="P6" t="n">
-        <v>122093.6550632046</v>
+        <v>108038.4810129866</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>438.2266732662166</v>
+        <v>438.2266732662167</v>
       </c>
       <c r="F3" t="n">
         <v>438.2266732662166</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.93628184442638</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="F4" t="n">
         <v>68.93628184442638</v>
@@ -26825,7 +26825,7 @@
         <v>78.99555307285411</v>
       </c>
       <c r="N4" t="n">
-        <v>78.99555307285411</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="O4" t="n">
         <v>68.93628184442638</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.4054547681739</v>
+        <v>118.405454768174</v>
       </c>
       <c r="F3" t="n">
         <v>1.078150109664906e-13</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.93628184442628</v>
+        <v>68.9362818444265</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.93864313989846</v>
+        <v>5.938643139898477</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>62.99763870452784</v>
+        <v>62.99763870452807</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.93628184442628</v>
+        <v>68.9362818444265</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J2" t="n">
         <v>101.2249010189225</v>
@@ -31059,7 +31059,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N2" t="n">
         <v>212.8079901154231</v>
@@ -31074,13 +31074,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U2" t="n">
         <v>0.09541221027130049</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H3" t="n">
         <v>6.162948071412645</v>
@@ -31211,7 +31211,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L4" t="n">
         <v>79.5373683577339</v>
@@ -31226,7 +31226,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q4" t="n">
         <v>44.79752353816112</v>
@@ -31235,7 +31235,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T4" t="n">
         <v>2.28583607240644</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S8" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T8" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.761715269411924</v>
+        <v>1.761715269411925</v>
       </c>
       <c r="H11" t="n">
         <v>18.04216650286488</v>
       </c>
       <c r="I11" t="n">
-        <v>67.91852792400329</v>
+        <v>67.9185279240033</v>
       </c>
       <c r="J11" t="n">
-        <v>149.5233813472504</v>
+        <v>149.5233813472505</v>
       </c>
       <c r="K11" t="n">
         <v>224.0967887014573</v>
       </c>
       <c r="L11" t="n">
-        <v>278.0118823777225</v>
+        <v>278.0118823777226</v>
       </c>
       <c r="M11" t="n">
-        <v>299.2825150716991</v>
+        <v>299.2825150716992</v>
       </c>
       <c r="N11" t="n">
-        <v>298.3493454410173</v>
+        <v>298.3493454410174</v>
       </c>
       <c r="O11" t="n">
-        <v>296.8292035991286</v>
+        <v>296.8292035991287</v>
       </c>
       <c r="P11" t="n">
-        <v>253.3368578855217</v>
+        <v>253.3368578855218</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.2454297997071</v>
+        <v>190.2454297997072</v>
       </c>
       <c r="R11" t="n">
         <v>110.6643467921969</v>
       </c>
       <c r="S11" t="n">
-        <v>40.14508670172427</v>
+        <v>40.14508670172428</v>
       </c>
       <c r="T11" t="n">
-        <v>7.711908591850704</v>
+        <v>7.711908591850706</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1409372215529539</v>
+        <v>0.140937221552954</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9426007689122394</v>
+        <v>0.9426007689122397</v>
       </c>
       <c r="H12" t="n">
-        <v>9.10353900502084</v>
+        <v>9.103539005020842</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45357910509246</v>
+        <v>32.45357910509247</v>
       </c>
       <c r="J12" t="n">
-        <v>89.05510159271294</v>
+        <v>89.05510159271297</v>
       </c>
       <c r="K12" t="n">
         <v>152.209353109833</v>
       </c>
       <c r="L12" t="n">
-        <v>144.3164458629599</v>
+        <v>204.6642590570194</v>
       </c>
       <c r="M12" t="n">
-        <v>211.0703157664447</v>
+        <v>211.0703157664448</v>
       </c>
       <c r="N12" t="n">
-        <v>200.2779939277597</v>
+        <v>200.2779939277598</v>
       </c>
       <c r="O12" t="n">
-        <v>211.5325262888708</v>
+        <v>197.2057104037316</v>
       </c>
       <c r="P12" t="n">
-        <v>179.9954047232504</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>120.3221613088676</v>
       </c>
       <c r="R12" t="n">
-        <v>58.52393195053362</v>
+        <v>58.52393195053364</v>
       </c>
       <c r="S12" t="n">
-        <v>17.50839586115496</v>
+        <v>17.50839586115497</v>
       </c>
       <c r="T12" t="n">
-        <v>3.799342572940121</v>
+        <v>3.799342572940122</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06201320848106841</v>
+        <v>0.06201320848106842</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7902448206439969</v>
+        <v>0.7902448206439971</v>
       </c>
       <c r="H13" t="n">
-        <v>7.025994859907541</v>
+        <v>7.025994859907543</v>
       </c>
       <c r="I13" t="n">
         <v>23.76481696991221</v>
       </c>
       <c r="J13" t="n">
-        <v>55.87030881953059</v>
+        <v>55.8703088195306</v>
       </c>
       <c r="K13" t="n">
-        <v>91.81208007118435</v>
+        <v>91.81208007118438</v>
       </c>
       <c r="L13" t="n">
         <v>117.4878526982903</v>
       </c>
       <c r="M13" t="n">
-        <v>123.8744676578585</v>
+        <v>123.8744676578586</v>
       </c>
       <c r="N13" t="n">
-        <v>120.9290096900037</v>
+        <v>120.9290096900038</v>
       </c>
       <c r="O13" t="n">
         <v>111.697513376117</v>
       </c>
       <c r="P13" t="n">
-        <v>95.57651903497938</v>
+        <v>95.5765190349794</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.1722276631987</v>
+        <v>66.17222766319871</v>
       </c>
       <c r="R13" t="n">
-        <v>35.53228075368371</v>
+        <v>35.53228075368372</v>
       </c>
       <c r="S13" t="n">
         <v>13.77181201067765</v>
       </c>
       <c r="T13" t="n">
-        <v>3.376500597297077</v>
+        <v>3.376500597297078</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04310426294421807</v>
+        <v>0.04310426294421808</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>89.05510159271296</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>152.209353109833</v>
       </c>
       <c r="L15" t="n">
         <v>204.6642590570194</v>
       </c>
       <c r="M15" t="n">
-        <v>165.0904167078592</v>
+        <v>211.0703157664447</v>
       </c>
       <c r="N15" t="n">
         <v>200.2779939277597</v>
       </c>
       <c r="O15" t="n">
-        <v>211.5325262888708</v>
+        <v>197.2057104037315</v>
       </c>
       <c r="P15" t="n">
-        <v>179.9954047232504</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>120.3221613088676</v>
@@ -32323,10 +32323,10 @@
         <v>204.6642590570194</v>
       </c>
       <c r="M18" t="n">
-        <v>170.4346098280921</v>
+        <v>221.1295869948724</v>
       </c>
       <c r="N18" t="n">
-        <v>210.3372651561874</v>
+        <v>159.6422879894071</v>
       </c>
       <c r="O18" t="n">
         <v>221.5917975172985</v>
@@ -32791,19 +32791,19 @@
         <v>89.05510159271296</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>152.209353109833</v>
       </c>
       <c r="L24" t="n">
         <v>204.6642590570194</v>
       </c>
       <c r="M24" t="n">
-        <v>227.0682301347709</v>
+        <v>185.3336902228819</v>
       </c>
       <c r="N24" t="n">
         <v>216.2759082960859</v>
       </c>
       <c r="O24" t="n">
-        <v>196.9020755884195</v>
+        <v>224.2687013648344</v>
       </c>
       <c r="P24" t="n">
         <v>179.9954047232504</v>
@@ -33028,10 +33028,10 @@
         <v>89.05510159271296</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>152.209353109833</v>
       </c>
       <c r="L27" t="n">
-        <v>177.2976332806044</v>
+        <v>204.6642590570194</v>
       </c>
       <c r="M27" t="n">
         <v>227.0682301347709</v>
@@ -33040,7 +33040,7 @@
         <v>216.2759082960859</v>
       </c>
       <c r="O27" t="n">
-        <v>224.2687013648344</v>
+        <v>182.5341614529455</v>
       </c>
       <c r="P27" t="n">
         <v>179.9954047232504</v>
@@ -33274,10 +33274,10 @@
         <v>227.0682301347709</v>
       </c>
       <c r="N30" t="n">
-        <v>216.2759082960859</v>
+        <v>174.5413683841969</v>
       </c>
       <c r="O30" t="n">
-        <v>182.5341614529455</v>
+        <v>224.2687013648344</v>
       </c>
       <c r="P30" t="n">
         <v>179.9954047232504</v>
@@ -33502,13 +33502,13 @@
         <v>89.05510159271296</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>152.209353109833</v>
       </c>
       <c r="L33" t="n">
         <v>204.6642590570194</v>
       </c>
       <c r="M33" t="n">
-        <v>199.7016043583559</v>
+        <v>185.3336902228819</v>
       </c>
       <c r="N33" t="n">
         <v>216.2759082960859</v>
@@ -33745,16 +33745,16 @@
         <v>204.6642590570194</v>
       </c>
       <c r="M36" t="n">
-        <v>170.4346098280921</v>
+        <v>221.1295869948724</v>
       </c>
       <c r="N36" t="n">
         <v>210.3372651561874</v>
       </c>
       <c r="O36" t="n">
-        <v>221.5917975172985</v>
+        <v>216.9178176594384</v>
       </c>
       <c r="P36" t="n">
-        <v>179.9954047232504</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>120.3221613088676</v>
@@ -33982,16 +33982,16 @@
         <v>204.6642590570194</v>
       </c>
       <c r="M39" t="n">
-        <v>170.4346098280921</v>
+        <v>221.1295869948724</v>
       </c>
       <c r="N39" t="n">
         <v>210.3372651561874</v>
       </c>
       <c r="O39" t="n">
-        <v>221.5917975172985</v>
+        <v>216.9178176594383</v>
       </c>
       <c r="P39" t="n">
-        <v>179.9954047232504</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>120.3221613088676</v>
@@ -34213,7 +34213,7 @@
         <v>89.05510159271296</v>
       </c>
       <c r="K42" t="n">
-        <v>152.209353109833</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>204.6642590570194</v>
@@ -34225,7 +34225,7 @@
         <v>200.2779939277597</v>
       </c>
       <c r="O42" t="n">
-        <v>151.1847130948113</v>
+        <v>165.5526272302854</v>
       </c>
       <c r="P42" t="n">
         <v>179.9954047232504</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.006937656476708</v>
+        <v>4.006937656476794</v>
       </c>
       <c r="L11" t="n">
-        <v>42.24546740773525</v>
+        <v>42.24546740773536</v>
       </c>
       <c r="M11" t="n">
-        <v>68.93628184442638</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="N11" t="n">
-        <v>68.93628184442638</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="O11" t="n">
-        <v>66.73099217744189</v>
+        <v>66.73099217744195</v>
       </c>
       <c r="P11" t="n">
-        <v>22.10386213025217</v>
+        <v>22.10386213025222</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.367914135474</v>
+        <v>14.36791413547402</v>
       </c>
       <c r="L12" t="n">
-        <v>5.762066083085757</v>
+        <v>66.10987927714524</v>
       </c>
       <c r="M12" t="n">
-        <v>68.93628184442638</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="N12" t="n">
-        <v>68.93628184442638</v>
+        <v>68.93628184442649</v>
       </c>
       <c r="O12" t="n">
-        <v>68.93628184442638</v>
+        <v>54.6094659592872</v>
       </c>
       <c r="P12" t="n">
-        <v>46.02099730892013</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.367914135474</v>
       </c>
       <c r="L15" t="n">
         <v>66.10987927714521</v>
       </c>
       <c r="M15" t="n">
-        <v>22.95638278584091</v>
+        <v>68.93628184442638</v>
       </c>
       <c r="N15" t="n">
         <v>68.93628184442638</v>
       </c>
       <c r="O15" t="n">
-        <v>68.93628184442638</v>
+        <v>54.60946595928702</v>
       </c>
       <c r="P15" t="n">
-        <v>46.02099730892013</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>66.10987927714521</v>
       </c>
       <c r="M18" t="n">
-        <v>28.30057590607379</v>
+        <v>78.99555307285411</v>
       </c>
       <c r="N18" t="n">
-        <v>78.99555307285411</v>
+        <v>28.3005759060738</v>
       </c>
       <c r="O18" t="n">
         <v>78.99555307285411</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>14.367914135474</v>
       </c>
       <c r="L24" t="n">
         <v>66.10987927714521</v>
       </c>
       <c r="M24" t="n">
-        <v>84.93419621275257</v>
+        <v>43.19965630086361</v>
       </c>
       <c r="N24" t="n">
         <v>84.93419621275257</v>
       </c>
       <c r="O24" t="n">
-        <v>54.30583114397504</v>
+        <v>81.67245692039</v>
       </c>
       <c r="P24" t="n">
         <v>46.02099730892013</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>14.367914135474</v>
       </c>
       <c r="L27" t="n">
-        <v>38.74325350073023</v>
+        <v>66.10987927714521</v>
       </c>
       <c r="M27" t="n">
         <v>84.93419621275257</v>
@@ -36688,7 +36688,7 @@
         <v>84.93419621275257</v>
       </c>
       <c r="O27" t="n">
-        <v>81.67245692039</v>
+        <v>39.93791700850107</v>
       </c>
       <c r="P27" t="n">
         <v>46.02099730892013</v>
@@ -36922,10 +36922,10 @@
         <v>84.93419621275257</v>
       </c>
       <c r="N30" t="n">
-        <v>84.93419621275257</v>
+        <v>43.19965630086362</v>
       </c>
       <c r="O30" t="n">
-        <v>39.93791700850107</v>
+        <v>81.67245692039</v>
       </c>
       <c r="P30" t="n">
         <v>46.02099730892013</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>14.367914135474</v>
       </c>
       <c r="L33" t="n">
         <v>66.10987927714521</v>
       </c>
       <c r="M33" t="n">
-        <v>57.5675704363376</v>
+        <v>43.19965630086361</v>
       </c>
       <c r="N33" t="n">
         <v>84.93419621275257</v>
@@ -37393,16 +37393,16 @@
         <v>66.10987927714521</v>
       </c>
       <c r="M36" t="n">
-        <v>28.30057590607379</v>
+        <v>78.99555307285411</v>
       </c>
       <c r="N36" t="n">
         <v>78.99555307285411</v>
       </c>
       <c r="O36" t="n">
-        <v>78.99555307285411</v>
+        <v>74.32157321499392</v>
       </c>
       <c r="P36" t="n">
-        <v>46.02099730892013</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>42.2454674077353</v>
       </c>
       <c r="M38" t="n">
-        <v>78.99555307285411</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="N38" t="n">
-        <v>78.99555307285411</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="O38" t="n">
         <v>66.73099217744195</v>
@@ -37630,16 +37630,16 @@
         <v>66.10987927714521</v>
       </c>
       <c r="M39" t="n">
-        <v>28.30057590607379</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="N39" t="n">
-        <v>78.99555307285411</v>
+        <v>78.99555307285409</v>
       </c>
       <c r="O39" t="n">
-        <v>78.99555307285411</v>
+        <v>74.32157321499389</v>
       </c>
       <c r="P39" t="n">
-        <v>46.02099730892013</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>14.367914135474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>66.10987927714521</v>
@@ -37873,7 +37873,7 @@
         <v>68.93628184442638</v>
       </c>
       <c r="O42" t="n">
-        <v>8.588468650366899</v>
+        <v>22.95638278584093</v>
       </c>
       <c r="P42" t="n">
         <v>46.02099730892013</v>
